--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1529277.913906057</v>
+        <v>-1531937.266878071</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>261.9119759469104</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>43.3579014488822</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>11.90668827475509</v>
       </c>
       <c r="U4" t="n">
-        <v>245.090700313902</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>75.29208165032168</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>176.9506363164423</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>22.53856058689524</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>10.01739471899197</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>374.755717333494</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>128.0737137084245</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>86.08369193928509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1342,13 +1342,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15.41430542441425</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>33.38664646283027</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>278.0669469385734</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>21.23835815356743</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26848612580527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2053,16 +2053,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>211.147499124903</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>86.8894339777008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>35.56815683447337</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>111.321323070213</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.6789846282036</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2852,13 +2852,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261736</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1592.135099548912</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C2" t="n">
-        <v>1223.1725826085</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D2" t="n">
-        <v>1223.1725826085</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="E2" t="n">
-        <v>837.3843300102556</v>
+        <v>1030.849386821566</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>619.8634820319585</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1978.734939613033</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.734939613033</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.734939613033</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1863.459728400694</v>
+        <v>1547.633597974876</v>
       </c>
       <c r="C4" t="n">
-        <v>1694.523545472787</v>
+        <v>1547.633597974876</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>1547.633597974876</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="F4" t="n">
         <v>1399.720504392483</v>
@@ -4510,28 +4510,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.710580560017</v>
+        <v>2251.100216222311</v>
       </c>
       <c r="U4" t="n">
-        <v>2118.14421660658</v>
+        <v>2251.100216222311</v>
       </c>
       <c r="V4" t="n">
-        <v>1863.459728400694</v>
+        <v>1996.415728016424</v>
       </c>
       <c r="W4" t="n">
-        <v>1863.459728400694</v>
+        <v>1996.415728016424</v>
       </c>
       <c r="X4" t="n">
-        <v>1863.459728400694</v>
+        <v>1768.426177118406</v>
       </c>
       <c r="Y4" t="n">
-        <v>1863.459728400694</v>
+        <v>1547.633597974876</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.925709425518</v>
+        <v>1195.040196257711</v>
       </c>
       <c r="C5" t="n">
-        <v>889.963192485106</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>531.6974938783555</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>145.9092412801113</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>138.9637405309078</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>127.2993942956008</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4598,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>1921.274609788905</v>
       </c>
       <c r="W5" t="n">
-        <v>2022.530799662409</v>
+        <v>1568.505954518791</v>
       </c>
       <c r="X5" t="n">
-        <v>1649.065041401329</v>
+        <v>1195.040196257711</v>
       </c>
       <c r="Y5" t="n">
-        <v>1258.925709425518</v>
+        <v>1195.040196257711</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.980677418363</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>524.980677418363</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>524.980677418363</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>524.980677418363</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>378.0907299204526</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>210.1042652287312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>61.36536709223742</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V7" t="n">
-        <v>1216.838891429094</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="W7" t="n">
-        <v>927.4217213921329</v>
+        <v>989.7610553472321</v>
       </c>
       <c r="X7" t="n">
-        <v>927.4217213921329</v>
+        <v>761.7715044492147</v>
       </c>
       <c r="Y7" t="n">
-        <v>706.6291422486028</v>
+        <v>540.9789253056846</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.833068744076</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1200.139242371469</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>841.8735437647181</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>456.0852911664738</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.432908808198</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617.5020034330385</v>
+        <v>676.4685272225361</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143257</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5020034330385</v>
+        <v>858.1169920527758</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.73118040114</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2163.338660171577</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1874.263433515775</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1619.578945309888</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1330.161775272927</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X13" t="n">
-        <v>1102.17222437491</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.3796452313798</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687975</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
         <v>631.7012443408906</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.068022140585</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.078471242567</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990373</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,31 +5501,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5595,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>962.6357307816187</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>793.6995478537118</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>643.582908441376</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>495.6698148589829</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>348.7798673610725</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>181.5837680759525</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611858</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>550.9217088032285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>403.0086152208354</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>256.118667722925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6844,25 +6844,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,13 +7360,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319313</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150012</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942643</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345466</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438401</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>114.3555089013352</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>84.94186588374734</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>149.6357268260436</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.8830672685308</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>279.2994865000559</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>123.2520448283297</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>184.018803864458</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>8.456051398017564</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.0084629450604</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>283.9159882634389</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>75.03697526434112</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40527886852308</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>131.6786642641545</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>106.0841272570753</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>24.81829093850975</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-3.785860641657541e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1279795.110021932</v>
+        <v>1279795.110021933</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1279795.110021933</v>
+        <v>1279795.110021932</v>
       </c>
     </row>
     <row r="10">
@@ -26314,10 +26314,10 @@
         <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26335,25 +26335,25 @@
         <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46585.95611007052</v>
+        <v>46585.95611007049</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.20035675661</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756613</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756617</v>
       </c>
       <c r="K4" t="n">
         <v>17328.05961985012</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985011</v>
+        <v>17328.05961985007</v>
       </c>
       <c r="M4" t="n">
         <v>17328.05961985007</v>
@@ -26457,7 +26457,7 @@
         <v>17328.05961985006</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985007</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1138230.668280308</v>
+        <v>-1138625.489221461</v>
       </c>
       <c r="C6" t="n">
-        <v>-85981.73640569756</v>
+        <v>-85981.73640569769</v>
       </c>
       <c r="D6" t="n">
-        <v>-245403.0064035896</v>
+        <v>-245403.0064035893</v>
       </c>
       <c r="E6" t="n">
-        <v>-294621.5370422677</v>
+        <v>-294656.2749677034</v>
       </c>
       <c r="F6" t="n">
-        <v>30790.92476508739</v>
+        <v>30756.18683965172</v>
       </c>
       <c r="G6" t="n">
-        <v>30790.92476508733</v>
+        <v>30756.18683965169</v>
       </c>
       <c r="H6" t="n">
-        <v>30790.92476508739</v>
+        <v>30756.18683965169</v>
       </c>
       <c r="I6" t="n">
-        <v>30790.92476508742</v>
+        <v>30756.18683965169</v>
       </c>
       <c r="J6" t="n">
-        <v>-136814.2530448951</v>
+        <v>-136848.9909703309</v>
       </c>
       <c r="K6" t="n">
-        <v>3762.416258852361</v>
+        <v>3762.416258852332</v>
       </c>
       <c r="L6" t="n">
-        <v>-25103.8357557066</v>
+        <v>-25103.83575570671</v>
       </c>
       <c r="M6" t="n">
-        <v>-61864.89368302765</v>
+        <v>-61864.89368302762</v>
       </c>
       <c r="N6" t="n">
-        <v>23190.13425248417</v>
+        <v>23190.13425248415</v>
       </c>
       <c r="O6" t="n">
-        <v>23190.1342524842</v>
+        <v>23190.13425248413</v>
       </c>
       <c r="P6" t="n">
-        <v>3762.416258852434</v>
+        <v>3762.416258852347</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>90.4316141784131</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>85.58996289412718</v>
       </c>
       <c r="U4" t="n">
-        <v>41.13645380729861</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>225.7264709120837</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>150.8016221536926</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>157.2934195950421</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>94.77920048490861</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>32.12032840821746</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>258.1642249476291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>81.16312915934274</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.1703479276806</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29572,13 +29572,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,22 +33260,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,10 +33901,10 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,10 +34778,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>412.0358695391854</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>553.5225306839448</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
